--- a/THCS1_GiuaMon_Excel_TRANHOANGNGUYEN.xlsx
+++ b/THCS1_GiuaMon_Excel_TRANHOANGNGUYEN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dit me\Downloads\nopbt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE26A96-F300-4CAB-85C7-A609A025E99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{660AF504-C9F9-4F86-94F8-5DE76A2B8A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DANH MỤC SẢN PHẨM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Mã SP</t>
   </si>
@@ -134,6 +134,9 @@
     <t>03/11/2025</t>
   </si>
   <si>
+    <t>BÁO CÁO DOANH THU BÁN HÀNG</t>
+  </si>
+  <si>
     <t>Tổng số lượng</t>
   </si>
   <si>
@@ -174,28 +177,13 @@
   </si>
   <si>
     <t>STT</t>
-  </si>
-  <si>
-    <t>Hàng bán ổn định, nhu cầu đều.</t>
-  </si>
-  <si>
-    <t>Sản phẩm bán chạy vào cuối tuần.</t>
-  </si>
-  <si>
-    <t>Khách mua bổ sung; tồn kho còn ít.</t>
-  </si>
-  <si>
-    <t>Bán nhanh trong ngày nắng nóng.</t>
-  </si>
-  <si>
-    <t>Sản phẩm tiêu thụ cao, nên nhập thêm.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,13 +203,6 @@
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -277,8 +258,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -290,28 +274,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -630,182 +602,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6">
+        <v>32000</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6">
+        <v>18000</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6">
+        <v>52000</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6">
+        <v>110000</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6000</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="6">
+        <v>15000</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="6">
+        <v>8000</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5">
-        <v>32000</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5">
-        <v>18000</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5">
-        <v>52000</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5">
-        <v>110000</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5">
-        <v>6000</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="5">
-        <v>15000</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="5">
-        <v>8000</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>20000</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -819,45 +791,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="45.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
@@ -865,25 +837,26 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="str">
-        <f>VLOOKUP(B2,'DANH MỤC SẢN PHẨM'!$B$2:$F$9,2,FALSE)</f>
+        <f>VLOOKUP(B2,'DANH MỤC SẢN PHẨM'!$B$2:$C$9,2,1)</f>
         <v>Sữa tươi Vinamilk 1L</v>
       </c>
       <c r="D2" s="9">
         <v>5</v>
       </c>
       <c r="E2" s="9">
-        <f>VLOOKUP(B2,'DANH MỤC SẢN PHẨM'!$B$2:$F$9,4,FALSE)</f>
+        <f>VLOOKUP(B2,'DANH MỤC SẢN PHẨM'!$B$2:$E$9,4,1)</f>
         <v>32000</v>
       </c>
       <c r="F2" s="9">
         <f>D2*E2</f>
         <v>160000</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="9" t="str">
+        <f>VLOOKUP(B2,'DANH MỤC SẢN PHẨM'!$B$2:$F$9,5,1)</f>
+        <v>Đồ uống</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
@@ -891,25 +864,26 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="str">
-        <f>VLOOKUP(B3,'DANH MỤC SẢN PHẨM'!$B$2:$F$9,2,FALSE)</f>
+        <f>VLOOKUP(B3,'DANH MỤC SẢN PHẨM'!$B$2:$C$9,2,1)</f>
         <v>Bánh Oreo 133g</v>
       </c>
       <c r="D3" s="9">
         <v>10</v>
       </c>
       <c r="E3" s="9">
-        <f>VLOOKUP(B3,'DANH MỤC SẢN PHẨM'!$B$2:$F$9,4,FALSE)</f>
+        <f>VLOOKUP(B3,'DANH MỤC SẢN PHẨM'!$B$2:$E$9,4,1)</f>
         <v>18000</v>
       </c>
       <c r="F3" s="9">
         <f>D3*E3</f>
         <v>180000</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="9" t="str">
+        <f>VLOOKUP(B3,'DANH MỤC SẢN PHẨM'!$B$2:$F$9,5,1)</f>
+        <v>Bánh kẹo</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
@@ -917,25 +891,26 @@
         <v>13</v>
       </c>
       <c r="C4" s="9" t="str">
-        <f>VLOOKUP(B4,'DANH MỤC SẢN PHẨM'!$B$2:$F$9,2,FALSE)</f>
+        <f>VLOOKUP(B4,'DANH MỤC SẢN PHẨM'!$B$2:$C$9,2,1)</f>
         <v>Dầu ăn Tường An 1L</v>
       </c>
       <c r="D4" s="9">
         <v>2</v>
       </c>
       <c r="E4" s="9">
-        <f>VLOOKUP(B4,'DANH MỤC SẢN PHẨM'!$B$2:$F$9,4,FALSE)</f>
+        <f>VLOOKUP(B4,'DANH MỤC SẢN PHẨM'!$B$2:$E$9,4,1)</f>
         <v>52000</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:F6" si="0">D4*E4</f>
+        <f>D4*E4</f>
         <v>104000</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="9" t="str">
+        <f>VLOOKUP(B4,'DANH MỤC SẢN PHẨM'!$B$2:$F$9,5,1)</f>
+        <v>Gia vị</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>31</v>
       </c>
@@ -943,25 +918,26 @@
         <v>5</v>
       </c>
       <c r="C5" s="9" t="str">
-        <f>VLOOKUP(B5,'DANH MỤC SẢN PHẨM'!$B$2:$F$9,2,FALSE)</f>
+        <f>VLOOKUP(B5,'DANH MỤC SẢN PHẨM'!$B$2:$C$9,2,1)</f>
         <v>Sữa tươi Vinamilk 1L</v>
       </c>
       <c r="D5" s="9">
         <v>8</v>
       </c>
       <c r="E5" s="9">
-        <f>VLOOKUP(B5,'DANH MỤC SẢN PHẨM'!$B$2:$F$9,4,FALSE)</f>
+        <f>VLOOKUP(B5,'DANH MỤC SẢN PHẨM'!$B$2:$E$9,4,1)</f>
         <v>32000</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" si="0"/>
+        <f>D5*E5</f>
         <v>256000</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="9" t="str">
+        <f>VLOOKUP(B5,'DANH MỤC SẢN PHẨM'!$B$2:$F$9,5,1)</f>
+        <v>Đồ uống</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>31</v>
       </c>
@@ -969,22 +945,23 @@
         <v>21</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>VLOOKUP(B6,'DANH MỤC SẢN PHẨM'!$B$2:$F$9,2,FALSE)</f>
+        <f>VLOOKUP(B6,'DANH MỤC SẢN PHẨM'!$B$2:$C$9,2,1)</f>
         <v>Nước suối Lavie 500ml</v>
       </c>
       <c r="D6" s="9">
         <v>15</v>
       </c>
       <c r="E6" s="9">
-        <f>VLOOKUP(B6,'DANH MỤC SẢN PHẨM'!$B$2:$F$9,4,FALSE)</f>
+        <f>VLOOKUP(B6,'DANH MỤC SẢN PHẨM'!$B$2:$E$9,4,1)</f>
         <v>6000</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="0"/>
+        <f>D6*E6</f>
         <v>90000</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>49</v>
+      <c r="G6" s="9" t="str">
+        <f>VLOOKUP(B6,'DANH MỤC SẢN PHẨM'!$B$2:$F$9,5,1)</f>
+        <v>Đồ uống</v>
       </c>
     </row>
   </sheetData>
@@ -994,135 +971,154 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11">
-        <f>SUMIF('DANH MỤC SẢN PHẨM'!F:F,A2,'BẢNG BÁN HÀNG'!D:D)</f>
+      <c r="B4" s="9">
+        <f>SUMIF('BẢNG BÁN HÀNG'!G$2:G$6, "Đồ uống", 'BẢNG BÁN HÀNG'!D$2:D$6)</f>
+        <v>28</v>
+      </c>
+      <c r="C4" s="9">
+        <f>SUMIF('BẢNG BÁN HÀNG'!G$2:G$6, "Đồ uống",'BẢNG BÁN HÀNG'!F$2:F$6)</f>
+        <v>506000</v>
+      </c>
+      <c r="D4" s="9">
+        <f>_xlfn.MAXIFS('BẢNG BÁN HÀNG'!F$2:F$6, 'BẢNG BÁN HÀNG'!G$2:G$6, "Đồ uống")</f>
+        <v>256000</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f>IFERROR(
+    INDEX('BẢNG BÁN HÀNG'!A$2:A$6, MATCH(
+        _xlfn.MAXIFS('BẢNG BÁN HÀNG'!F$2:F$6, 'BẢNG BÁN HÀNG'!G$2:G$6, "Đồ uống"),
+        'BẢNG BÁN HÀNG'!F$2:F$6, 0)
+    ),
+    "Chưa bán")</f>
+        <v>03/11/2025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9">
+        <f>SUMIF('BẢNG BÁN HÀNG'!G$2:G$6, "Bánh kẹo", 'BẢNG BÁN HÀNG'!D$2:D$6)</f>
+        <v>10</v>
+      </c>
+      <c r="C5" s="9">
+        <f>SUMIF('BẢNG BÁN HÀNG'!G$2:G$6, "Bánh kẹo",'BẢNG BÁN HÀNG'!F$2:F$6)</f>
+        <v>180000</v>
+      </c>
+      <c r="D5" s="9">
+        <f>_xlfn.MAXIFS('BẢNG BÁN HÀNG'!F$2:F$6, 'BẢNG BÁN HÀNG'!G$2:G$6, "Bánh kẹo")</f>
+        <v>180000</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f>IFERROR(
+    INDEX('BẢNG BÁN HÀNG'!A$2:A$6, MATCH(
+        _xlfn.MAXIFS('BẢNG BÁN HÀNG'!F$2:F$6, 'BẢNG BÁN HÀNG'!G$2:G$6, "Bánh kẹo"),
+        'BẢNG BÁN HÀNG'!F$2:F$6, 0)
+    ),
+    "Chưa bán")</f>
+        <v>02/11/2025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9">
+        <f>SUMIF('BẢNG BÁN HÀNG'!G$2:G$6, "Gia vị", 'BẢNG BÁN HÀNG'!D$2:D$6)</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="9">
+        <f>SUMIF('BẢNG BÁN HÀNG'!G$2:G$6, "Gia vị",'BẢNG BÁN HÀNG'!F$2:F$6)</f>
+        <v>104000</v>
+      </c>
+      <c r="D6" s="9">
+        <f>_xlfn.MAXIFS('BẢNG BÁN HÀNG'!F$2:F$6, 'BẢNG BÁN HÀNG'!G$2:G$6, "Gia vị")</f>
+        <v>104000</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f>IFERROR(
+    INDEX('BẢNG BÁN HÀNG'!A$2:A$6, MATCH(
+        _xlfn.MAXIFS('BẢNG BÁN HÀNG'!F$2:F$6, 'BẢNG BÁN HÀNG'!G$2:G$6, "Gia vị"),
+        'BẢNG BÁN HÀNG'!F$2:F$6, 0)
+    ),
+    "Chưa bán")</f>
+        <v>02/11/2025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9">
-        <f>SUMIF('DANH MỤC SẢN PHẨM'!F:F,A2,'BẢNG BÁN HÀNG'!F:F)</f>
-        <v>250000</v>
-      </c>
-      <c r="D2" s="9">
-        <f>MAX(IF('DANH MỤC SẢN PHẨM'!F:F=A2,'BẢNG BÁN HÀNG'!F:F))</f>
-        <v>256000</v>
-      </c>
-      <c r="E2" s="9" t="str">
-        <f>INDEX('BẢNG BÁN HÀNG'!A:A, MATCH(D2, 'BẢNG BÁN HÀNG'!F:F,0))</f>
-        <v>03/11/2025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="11">
-        <f>SUMIF('DANH MỤC SẢN PHẨM'!F:F,A3,'BẢNG BÁN HÀNG'!D:D)</f>
-        <v>10</v>
-      </c>
-      <c r="C3" s="9">
-        <f>SUMIF('DANH MỤC SẢN PHẨM'!F:F,A3,'BẢNG BÁN HÀNG'!F:F)</f>
-        <v>180000</v>
-      </c>
-      <c r="D3" s="9">
-        <f>MAX(IF('DANH MỤC SẢN PHẨM'!F:F=A3,'BẢNG BÁN HÀNG'!F:F))</f>
-        <v>256000</v>
-      </c>
-      <c r="E3" s="9" t="str">
-        <f>INDEX('BẢNG BÁN HÀNG'!A:A, MATCH(D3, 'BẢNG BÁN HÀNG'!F:F,0))</f>
-        <v>03/11/2025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="11">
-        <f>SUMIF('DANH MỤC SẢN PHẨM'!F:F,A4,'BẢNG BÁN HÀNG'!D:D)</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="9">
-        <f>SUMIF('DANH MỤC SẢN PHẨM'!F:F,A4,'BẢNG BÁN HÀNG'!F:F)</f>
-        <v>104000</v>
-      </c>
-      <c r="D4" s="9">
-        <f>MAX(IF('DANH MỤC SẢN PHẨM'!F:F=A4,'BẢNG BÁN HÀNG'!F:F))</f>
-        <v>256000</v>
-      </c>
-      <c r="E4" s="9" t="str">
-        <f>INDEX('BẢNG BÁN HÀNG'!A:A, MATCH(D4, 'BẢNG BÁN HÀNG'!F:F,0))</f>
-        <v>03/11/2025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="11">
-        <f>SUMIF('DANH MỤC SẢN PHẨM'!F:F,A5,'BẢNG BÁN HÀNG'!D:D)</f>
-        <v>8</v>
-      </c>
-      <c r="C5" s="9">
-        <f>SUMIF('DANH MỤC SẢN PHẨM'!F:F,A5,'BẢNG BÁN HÀNG'!F:F)</f>
-        <v>256000</v>
-      </c>
-      <c r="D5" s="9">
-        <f>MAX(IF('DANH MỤC SẢN PHẨM'!F:F=A5,'BẢNG BÁN HÀNG'!F:F))</f>
-        <v>256000</v>
-      </c>
-      <c r="E5" s="9" t="str">
-        <f>INDEX('BẢNG BÁN HÀNG'!A:A, MATCH(D5, 'BẢNG BÁN HÀNG'!F:F,0))</f>
-        <v>03/11/2025</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="13"/>
+      <c r="B7" s="9">
+        <f>SUMIF('BẢNG BÁN HÀNG'!G$2:G$6, "Thực phẩm", 'BẢNG BÁN HÀNG'!D$2:D$6)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <f>SUMIF('BẢNG BÁN HÀNG'!G$2:G$6, "Thực phẩm",'BẢNG BÁN HÀNG'!F$2:F$6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <f>_xlfn.MAXIFS('BẢNG BÁN HÀNG'!F$2:F$6, 'BẢNG BÁN HÀNG'!G$2:G$6, "Thực phẩm")</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f>IFERROR(
+    INDEX('BẢNG BÁN HÀNG'!A$2:A$6, MATCH(
+        _xlfn.MAXIFS('BẢNG BÁN HÀNG'!F$2:F$6, 'BẢNG BÁN HÀNG'!G$2:G$6, "Thực phẩm"),
+        'BẢNG BÁN HÀNG'!F$2:F$6, 0)
+    ),
+    "Chưa bán")</f>
+        <v>Chưa bán</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
